--- a/UI/bin/Debug/Excel/patternPutOutStorageTicketNormal.xlsx
+++ b/UI/bin/Debug/Excel/patternPutOutStorageTicketNormal.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>生产物流部出库单</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>@items[i].RealAmount</t>
+  </si>
+  <si>
+    <t>@items[i].RealAmount*items[i].UnitAmount</t>
   </si>
   <si>
     <t>送货时间：@putOutStorageTicket.DeliverTime.toLocaleDateString()</t>
@@ -122,10 +125,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -165,24 +168,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,24 +205,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -247,62 +265,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,187 +332,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,6 +651,45 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,11 +703,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,51 +733,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -757,10 +760,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -769,133 +772,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1345,7 +1348,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1507,28 +1510,30 @@
       <c r="G8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23" t="s">
+      <c r="H8" s="23" t="s">
         <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
       </c>
       <c r="J8" s="23"/>
       <c r="K8" s="32"/>
     </row>
     <row r="9" ht="15.75" spans="1:11">
       <c r="A9" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G9" s="24"/>
       <c r="H9" s="25"/>
       <c r="I9" s="33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J9" s="33"/>
       <c r="K9" s="27"/>

--- a/UI/bin/Debug/Excel/patternPutOutStorageTicketNormal.xlsx
+++ b/UI/bin/Debug/Excel/patternPutOutStorageTicketNormal.xlsx
@@ -111,7 +111,7 @@
     <t>@items[i].RealAmount*items[i].UnitAmount</t>
   </si>
   <si>
-    <t>送货时间：@putOutStorageTicket.DeliverTime.toLocaleDateString()</t>
+    <t>送货时间：@putOutStorageTicket.DeliverTime==null?'':putOutStorageTicket.DeliverTime.toLocaleDateString()</t>
   </si>
   <si>
     <t>车牌号：@putOutStorageTicket.CarNum</t>
@@ -126,9 +126,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -167,6 +167,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -175,15 +190,77 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,39 +282,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,63 +296,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,37 +332,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,145 +512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,6 +651,71 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,23 +738,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,56 +752,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -760,10 +760,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -772,133 +772,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1348,7 +1348,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/UI/bin/Debug/Excel/patternPutOutStorageTicketNormal.xlsx
+++ b/UI/bin/Debug/Excel/patternPutOutStorageTicketNormal.xlsx
@@ -18,10 +18,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
+    <t>#SET TABLE COLUMNS 10</t>
+  </si>
+  <si>
     <t>生产物流部出库单</t>
   </si>
   <si>
-    <t>@""//初始化代码~</t>
+    <t>@var items = putOutStorageTicketItems;""</t>
   </si>
   <si>
     <t>出库单编号:</t>
@@ -40,9 +43,6 @@
   </si>
   <si>
     <t>@putOutStorageTicket.PersonName</t>
-  </si>
-  <si>
-    <t>@var items = putOutStorageTicketItems;""</t>
   </si>
   <si>
     <t>使用单位</t>
@@ -128,18 +128,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -171,14 +176,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,15 +287,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,39 +305,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,59 +318,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -335,187 +340,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,11 +663,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,10 +739,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -707,54 +760,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -763,241 +768,244 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1351,240 +1359,241 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F5" sqref="F5:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.1504424778761" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="23.25" spans="1:11">
+    <row r="1" ht="23.25" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" ht="15.75" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="29" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" ht="15.75" spans="1:11">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="30" t="s">
+      <c r="H3" s="13"/>
+      <c r="I3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="27"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="28"/>
     </row>
     <row r="4" ht="15.75" spans="1:11">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="27"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="28"/>
     </row>
     <row r="5" ht="15.75" spans="1:11">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="15" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="15" t="s">
+      <c r="I5" s="13"/>
+      <c r="J5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="27"/>
+      <c r="K5" s="28"/>
     </row>
     <row r="6" ht="15.75" spans="1:11">
-      <c r="A6" s="19"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="16" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="27"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="28"/>
     </row>
     <row r="7" ht="15.75" spans="1:11">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="27"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="28"/>
     </row>
     <row r="8" ht="15.75" spans="1:11">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23" t="s">
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="24" t="s">
         <v>29</v>
       </c>
       <c r="I8" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="32"/>
+      <c r="K8" s="33"/>
     </row>
     <row r="9" ht="15.75" spans="1:11">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="33" t="s">
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="33"/>
-      <c r="K9" s="27"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="28"/>
     </row>
     <row r="10" ht="15.75" spans="1:11">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="28"/>
     </row>
     <row r="11" ht="15.75" spans="1:11">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
     </row>
     <row r="12" ht="15.75" spans="1:11">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A1:J1"/>
+  <mergeCells count="20">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
